--- a/2022/data/processed/GLOS.xlsx
+++ b/2022/data/processed/GLOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mathew.Biddle\Documents\GitProjects\ioos-asset-inventory\2022\data\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A7E208-BAA0-4887-91DD-BD774FC1EBC3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864E1C27-CC49-4469-819D-F047AD49A3D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5657,10 +5657,10 @@
   <dimension ref="A1:X997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E104" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B120" sqref="B120"/>
+      <selection pane="bottomRight" activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
